--- a/biology/Botanique/Indigofera_deightonii/Indigofera_deightonii.xlsx
+++ b/biology/Botanique/Indigofera_deightonii/Indigofera_deightonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indigofera deightonii est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale[2].
-Son épithète spécifique deightonii rend hommage au botaniste Frederick Claude Deighton (1903-1992), collecteur au Ghana et en Sierra Leone[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigofera deightonii est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale.
+Son épithète spécifique deightonii rend hommage au botaniste Frederick Claude Deighton (1903-1992), collecteur au Ghana et en Sierra Leone.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juin 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juin 2020) :
 sous-espèce Indigofera deightonii subsp. deightonii
 sous-espèce Indigofera deightonii subsp. rhodesica
-Selon Tropicos                                           (20 juin 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Indigofera deightonii subsp. deightonii
 sous-espèce Indigofera deightonii subsp. rhodesica J.B. Gillett</t>
         </is>
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle rampante, dont les branches, fragiles ou ligneuses[6] atteignent 45-50 cm de longueur. Elle forme un tapis ou de grandes touffes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle rampante, dont les branches, fragiles ou ligneuses atteignent 45-50 cm de longueur. Elle forme un tapis ou de grandes touffes.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve en Afrique tropicale, de la Guinée au Soudan[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve en Afrique tropicale, de la Guinée au Soudan.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante rudérale, elle se développe le long des chemins[2], sur les terrains rocheux et les inselbergs, parmi les graminées[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante rudérale, elle se développe le long des chemins, sur les terrains rocheux et les inselbergs, parmi les graminées.
 </t>
         </is>
       </c>
